--- a/downloaded_files/ARCS406_Tutorial-35229.xlsx
+++ b/downloaded_files/ARCS406_Tutorial-35229.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -348,6 +348,15 @@
     <x:t>Mai Ahmed Abdel-Aziz Abou-Hagar</x:t>
   </x:si>
   <x:si>
+    <x:t>1210086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميار عاطف عبد اللطيف عبد العظيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAYAR ATEF ABDELLATIF ABDELAZIM</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210418</x:t>
   </x:si>
   <x:si>
@@ -463,6 +472,15 @@
   </x:si>
   <x:si>
     <x:t>Yehia Zakaria Abdelhamid Abdelsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى محمد عماد السيد محمد رمضان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia mohamed emad elsayed mohamed ramdan</x:t>
   </x:si>
   <x:si>
     <x:t>1210384</x:t>
@@ -587,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +905,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2098,7 +2116,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.5717043981</x:v>
+        <x:v>45926.1079885069</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2130,7 +2148,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.5203287384</x:v>
+        <x:v>45906.5717043981</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2162,7 +2180,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45909.5203287384</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2194,7 +2212,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6655195602</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2226,7 +2244,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.6655195602</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2258,7 +2276,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45911.9774092593</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2290,7 +2308,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45911.9774092593</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2322,7 +2340,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2354,7 +2372,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2386,7 +2404,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2418,7 +2436,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,7 +2468,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.6832625347</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2482,7 +2500,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2514,7 +2532,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.4146188657</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2531,6 +2549,70 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45926.1085575579</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45906.4146188657</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
